--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t xml:space="preserve">PAQUETES</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">caTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visdat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tidymodels</t>
   </si>
   <si>
     <t xml:space="preserve">dplyr</t>
@@ -241,12 +247,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,13 +281,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
   </cols>
@@ -510,6 +520,16 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">BASE</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ckmeans.1d.dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devtools</t>
   </si>
   <si>
     <t xml:space="preserve">car</t>
@@ -137,11 +140,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,6 +167,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +256,10 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
   </cols>
@@ -381,21 +393,24 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">BASE</t>
   </si>
@@ -28,109 +28,112 @@
     <t xml:space="preserve">MODELADO</t>
   </si>
   <si>
+    <t xml:space="preserve">SECUNDARIOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">corrplot</t>
   </si>
   <si>
     <t xml:space="preserve">caret</t>
   </si>
   <si>
+    <t xml:space="preserve">rpart</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggthemes</t>
   </si>
   <si>
+    <t xml:space="preserve">tidymodels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpart.plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knitr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ckmeans.1d.dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openxlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nortest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgboost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmtest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomForest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glmnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visdat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klaR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car</t>
+  </si>
+  <si>
     <t xml:space="preserve">rminer</t>
   </si>
   <si>
-    <t xml:space="preserve">knitr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openxlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpart.plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomForest</t>
+    <t xml:space="preserve">GGally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensorflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastDummies</t>
   </si>
   <si>
     <t xml:space="preserve">corrgram</t>
   </si>
   <si>
-    <t xml:space="preserve">xgboost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visdat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tidymodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggvis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nortest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastDummies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmtest</t>
-  </si>
-  <si>
     <t xml:space="preserve">gridExtra</t>
   </si>
   <si>
-    <t xml:space="preserve">e1071</t>
+    <t xml:space="preserve">ROCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reshape2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devtools</t>
   </si>
   <si>
     <t xml:space="preserve">tidyverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glmnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klaR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reshape2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ckmeans.1d.dp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devtools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caTools</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,6 +171,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -219,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,11 +236,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,15 +265,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,146 +284,145 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>21</v>
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
+      <c r="A15" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>36</v>
+      <c r="A17" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -418,8 +430,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">BASE</t>
   </si>
@@ -31,13 +31,19 @@
     <t xml:space="preserve">SECUNDARIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">rlang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpart</t>
+  </si>
+  <si>
     <t xml:space="preserve">corrplot</t>
   </si>
   <si>
     <t xml:space="preserve">caret</t>
   </si>
   <si>
-    <t xml:space="preserve">rpart</t>
+    <t xml:space="preserve">rpart.plot</t>
   </si>
   <si>
     <t xml:space="preserve">ggthemes</t>
@@ -46,7 +52,7 @@
     <t xml:space="preserve">tidymodels</t>
   </si>
   <si>
-    <t xml:space="preserve">rpart.plot</t>
+    <t xml:space="preserve">Ckmeans.1d.dp</t>
   </si>
   <si>
     <t xml:space="preserve">knitr</t>
@@ -55,7 +61,7 @@
     <t xml:space="preserve">Metrics</t>
   </si>
   <si>
-    <t xml:space="preserve">Ckmeans.1d.dp</t>
+    <t xml:space="preserve">xgboost</t>
   </si>
   <si>
     <t xml:space="preserve">openxlsx</t>
@@ -64,7 +70,7 @@
     <t xml:space="preserve">nortest</t>
   </si>
   <si>
-    <t xml:space="preserve">xgboost</t>
+    <t xml:space="preserve">randomForest</t>
   </si>
   <si>
     <t xml:space="preserve">DataExplorer</t>
@@ -73,7 +79,7 @@
     <t xml:space="preserve">lmtest</t>
   </si>
   <si>
-    <t xml:space="preserve">randomForest</t>
+    <t xml:space="preserve">MASS</t>
   </si>
   <si>
     <t xml:space="preserve">class</t>
@@ -82,7 +88,7 @@
     <t xml:space="preserve">glmnet</t>
   </si>
   <si>
-    <t xml:space="preserve">MASS</t>
+    <t xml:space="preserve">DT</t>
   </si>
   <si>
     <t xml:space="preserve">visdat</t>
@@ -91,7 +97,7 @@
     <t xml:space="preserve">klaR</t>
   </si>
   <si>
-    <t xml:space="preserve">DT</t>
+    <t xml:space="preserve">rminer</t>
   </si>
   <si>
     <t xml:space="preserve">ggvis</t>
@@ -100,7 +106,7 @@
     <t xml:space="preserve">car</t>
   </si>
   <si>
-    <t xml:space="preserve">rminer</t>
+    <t xml:space="preserve">e1071</t>
   </si>
   <si>
     <t xml:space="preserve">GGally</t>
@@ -109,13 +115,10 @@
     <t xml:space="preserve">tensorflow</t>
   </si>
   <si>
-    <t xml:space="preserve">e1071</t>
+    <t xml:space="preserve">corrgram</t>
   </si>
   <si>
     <t xml:space="preserve">fastDummies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrgram</t>
   </si>
   <si>
     <t xml:space="preserve">gridExtra</t>
@@ -143,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,11 +174,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -227,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,15 +234,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,13 +259,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.76"/>
@@ -293,102 +287,105 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -411,18 +408,23 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">BASE</t>
   </si>
@@ -31,94 +31,88 @@
     <t xml:space="preserve">SECUNDARIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">rlang</t>
+    <t xml:space="preserve">corrplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caret</t>
   </si>
   <si>
     <t xml:space="preserve">rpart</t>
   </si>
   <si>
-    <t xml:space="preserve">corrplot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caret</t>
+    <t xml:space="preserve">ggthemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrics</t>
   </si>
   <si>
     <t xml:space="preserve">rpart.plot</t>
   </si>
   <si>
-    <t xml:space="preserve">ggthemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tidymodels</t>
+    <t xml:space="preserve">knitr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nortest</t>
   </si>
   <si>
     <t xml:space="preserve">Ckmeans.1d.dp</t>
   </si>
   <si>
-    <t xml:space="preserve">knitr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrics</t>
+    <t xml:space="preserve">openxlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmtest</t>
   </si>
   <si>
     <t xml:space="preserve">xgboost</t>
   </si>
   <si>
-    <t xml:space="preserve">openxlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nortest</t>
+    <t xml:space="preserve">DataExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glmnet</t>
   </si>
   <si>
     <t xml:space="preserve">randomForest</t>
   </si>
   <si>
-    <t xml:space="preserve">DataExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmtest</t>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klaR</t>
   </si>
   <si>
     <t xml:space="preserve">MASS</t>
   </si>
   <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glmnet</t>
+    <t xml:space="preserve">visdat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car</t>
   </si>
   <si>
     <t xml:space="preserve">DT</t>
   </si>
   <si>
-    <t xml:space="preserve">visdat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klaR</t>
+    <t xml:space="preserve">ggvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensorflow</t>
   </si>
   <si>
     <t xml:space="preserve">rminer</t>
   </si>
   <si>
-    <t xml:space="preserve">ggvis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car</t>
+    <t xml:space="preserve">GGally</t>
   </si>
   <si>
     <t xml:space="preserve">e1071</t>
   </si>
   <si>
-    <t xml:space="preserve">GGally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tensorflow</t>
+    <t xml:space="preserve">fastDummies</t>
   </si>
   <si>
     <t xml:space="preserve">corrgram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastDummies</t>
   </si>
   <si>
     <t xml:space="preserve">gridExtra</t>
@@ -259,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,94 +281,91 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -382,49 +373,41 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">BASE</t>
   </si>
@@ -37,88 +37,88 @@
     <t xml:space="preserve">caret</t>
   </si>
   <si>
+    <t xml:space="preserve">Ckmeans.1d.dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggthemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensorflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knitr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomForest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openxlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgboost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glmnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rminer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klaR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visdat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrgram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adabag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastDummies</t>
+  </si>
+  <si>
     <t xml:space="preserve">rpart</t>
   </si>
   <si>
-    <t xml:space="preserve">ggthemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrics</t>
+    <t xml:space="preserve">gridExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCR</t>
   </si>
   <si>
     <t xml:space="preserve">rpart.plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knitr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nortest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ckmeans.1d.dp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openxlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgboost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glmnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomForest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klaR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visdat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggvis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tensorflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rminer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e1071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastDummies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrgram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gridExtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCR</t>
   </si>
   <si>
     <t xml:space="preserve">pROC</t>
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,6 +168,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -219,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,6 +238,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,10 +265,10 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.76"/>
@@ -302,7 +311,7 @@
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -313,7 +322,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -360,33 +369,36 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -394,9 +406,12 @@
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/util/paquetes.xlsx
+++ b/util/paquetes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">BASE</t>
   </si>
@@ -61,67 +61,70 @@
     <t xml:space="preserve">openxlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">gbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rminer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glmnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klaR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrgram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visdat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adabag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGally</t>
+  </si>
+  <si>
     <t xml:space="preserve">xgboost</t>
   </si>
   <si>
+    <t xml:space="preserve">fastDummies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpart.plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pROC</t>
+  </si>
+  <si>
     <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glmnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rminer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klaR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e1071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visdat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrgram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggvis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adabag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastDummies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gridExtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kernlab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpart.plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pROC</t>
   </si>
   <si>
     <t xml:space="preserve">reshape2</t>
@@ -265,7 +268,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,7 +325,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -358,24 +361,22 @@
       <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,22 +408,22 @@
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
